--- a/optaplanner-examples/data/flightcrewscheduling/unsolved/700flights-28days-Europe.xlsx
+++ b/optaplanner-examples/data/flightcrewscheduling/unsolved/700flights-28days-Europe.xlsx
@@ -10063,7 +10063,7 @@
       <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -10084,7 +10084,7 @@
       <c r="N3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -10108,7 +10108,7 @@
       <c r="V3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X3" s="3" t="s">
@@ -10155,13 +10155,13 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -10179,10 +10179,10 @@
       <c r="N4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -10194,7 +10194,7 @@
       <c r="S4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -10241,7 +10241,7 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -10256,7 +10256,7 @@
       <c r="H5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -10268,7 +10268,7 @@
       <c r="L5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -10298,7 +10298,7 @@
       <c r="V5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X5" s="2" t="s">
@@ -10310,7 +10310,7 @@
       <c r="Z5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB5" s="2" t="s">
@@ -10322,7 +10322,7 @@
       <c r="AD5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       <c r="F6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -10354,10 +10354,10 @@
       <c r="I6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -10437,7 +10437,7 @@
       <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -10467,7 +10467,7 @@
       <c r="O7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -10476,10 +10476,10 @@
       <c r="R7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="S7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -10494,7 +10494,7 @@
       <c r="X7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z7" s="2" t="s">
@@ -10503,7 +10503,7 @@
       <c r="AA7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC7" s="2" t="s">
@@ -10526,7 +10526,7 @@
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -10550,13 +10550,13 @@
       <c r="K8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -10568,7 +10568,7 @@
       <c r="Q8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S8" s="2" t="s">
@@ -10601,13 +10601,13 @@
       <c r="AB8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AE8" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
       <c r="U9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W9" s="2" t="s">
@@ -10687,10 +10687,10 @@
       <c r="Y9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AB9" s="2" t="s">
@@ -10814,7 +10814,7 @@
       <c r="D11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -10838,7 +10838,7 @@
       <c r="L11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -10862,7 +10862,7 @@
       <c r="T11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V11" s="2" t="s">
@@ -11117,7 +11117,7 @@
       <c r="J14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -11132,10 +11132,10 @@
       <c r="O14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -11153,16 +11153,16 @@
       <c r="V14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA14" s="2" t="s">
@@ -11171,13 +11171,13 @@
       <c r="AB14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11186,7 +11186,7 @@
         <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -11194,7 +11194,7 @@
       <c r="D15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -11203,7 +11203,7 @@
       <c r="G15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -11212,16 +11212,16 @@
       <c r="J15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -11236,13 +11236,13 @@
       <c r="R15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V15" s="2" t="s">
@@ -11281,21 +11281,21 @@
         <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -11316,7 +11316,7 @@
       <c r="M16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -11328,7 +11328,7 @@
       <c r="Q16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S16" s="2" t="s">
@@ -11405,7 +11405,7 @@
       <c r="K17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -11500,7 +11500,7 @@
       <c r="K18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -11530,7 +11530,7 @@
       <c r="U18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W18" s="2" t="s">
@@ -11551,7 +11551,7 @@
       <c r="AB18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AC18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD18" s="2" t="s">
@@ -11586,7 +11586,7 @@
       <c r="H19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -11613,10 +11613,10 @@
       <c r="Q19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S19" s="3" t="s">
+      <c r="R19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T19" s="2" t="s">
@@ -11625,13 +11625,13 @@
       <c r="U19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="V19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y19" s="2" t="s">
@@ -11669,7 +11669,7 @@
       <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -11729,13 +11729,13 @@
       <c r="X20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA20" s="3" t="s">
+      <c r="Y20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB20" s="2" t="s">
@@ -11764,10 +11764,10 @@
       <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -11782,7 +11782,7 @@
       <c r="J21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -11791,28 +11791,28 @@
       <c r="M21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="N21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U21" s="2" t="s">
+      <c r="T21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V21" s="2" t="s">
@@ -11839,7 +11839,7 @@
       <c r="AC21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AD21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE21" s="2" t="s">
@@ -11851,18 +11851,18 @@
         <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -11874,7 +11874,7 @@
       <c r="I22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -11883,13 +11883,13 @@
       <c r="L22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -11913,7 +11913,7 @@
       <c r="V22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X22" s="2" t="s">
@@ -11928,7 +11928,7 @@
       <c r="AA22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC22" s="2" t="s">
@@ -11951,22 +11951,22 @@
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -12002,10 +12002,10 @@
       <c r="T23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V23" s="3" t="s">
+      <c r="U23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W23" s="2" t="s">
@@ -12014,7 +12014,7 @@
       <c r="X23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z23" s="2" t="s">
@@ -12029,7 +12029,7 @@
       <c r="AC23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AD23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE23" s="2" t="s">
@@ -12041,7 +12041,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -12055,7 +12055,7 @@
       <c r="F24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -12070,7 +12070,7 @@
       <c r="K24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -12091,10 +12091,10 @@
       <c r="R24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="S24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U24" s="2" t="s">
@@ -12103,19 +12103,19 @@
       <c r="V24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X24" s="2" t="s">
+      <c r="W24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA24" s="3" t="s">
+      <c r="Z24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB24" s="2" t="s">
@@ -12150,13 +12150,13 @@
       <c r="F25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="G25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -12186,7 +12186,7 @@
       <c r="R25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="S25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T25" s="2" t="s">
@@ -12201,10 +12201,10 @@
       <c r="W25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y25" s="3" t="s">
+      <c r="X25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z25" s="2" t="s">
@@ -12216,13 +12216,13 @@
       <c r="AB25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE25" s="3" t="s">
+      <c r="AC25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
         <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -12263,7 +12263,7 @@
       <c r="L26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -12278,7 +12278,7 @@
       <c r="Q26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S26" s="2" t="s">
@@ -12296,7 +12296,7 @@
       <c r="W26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="X26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y26" s="2" t="s">
@@ -12308,10 +12308,10 @@
       <c r="AA26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC26" s="3" t="s">
+      <c r="AB26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD26" s="2" t="s">
@@ -12352,16 +12352,16 @@
       <c r="J27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="K27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -12382,7 +12382,7 @@
       <c r="T27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V27" s="2" t="s">
@@ -12397,7 +12397,7 @@
       <c r="Y27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="Z27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA27" s="2" t="s">
@@ -12421,12 +12421,12 @@
         <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -12438,7 +12438,7 @@
       <c r="G28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -12447,7 +12447,7 @@
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -12492,7 +12492,7 @@
       <c r="Y28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA28" s="2" t="s">
@@ -12539,7 +12539,7 @@
       <c r="I29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -12554,7 +12554,7 @@
       <c r="N29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P29" s="2" t="s">
@@ -12563,7 +12563,7 @@
       <c r="Q29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S29" s="2" t="s">
@@ -12643,7 +12643,7 @@
       <c r="L30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -12691,7 +12691,7 @@
       <c r="AB30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AC30" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD30" s="2" t="s">
@@ -12729,7 +12729,7 @@
       <c r="I31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="3" t="s">
         <v>74</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -12741,7 +12741,7 @@
       <c r="M31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -12750,7 +12750,7 @@
       <c r="P31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -12774,7 +12774,7 @@
       <c r="X31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Y31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z31" s="2" t="s">
@@ -12789,10 +12789,10 @@
       <c r="AC31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE31" s="3" t="s">
+      <c r="AD31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE31" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12854,13 +12854,13 @@
       <c r="S32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="V32" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W32" s="2" t="s">
@@ -12896,7 +12896,7 @@
         <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -12910,7 +12910,7 @@
       <c r="F33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -12952,7 +12952,7 @@
       <c r="T33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="U33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V33" s="2" t="s">
@@ -13065,10 +13065,10 @@
       <c r="Z34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB34" s="2" t="s">
+      <c r="AA34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB34" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC34" s="2" t="s">
@@ -13077,7 +13077,7 @@
       <c r="AD34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE34" s="2" t="s">
+      <c r="AE34" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -13086,7 +13086,7 @@
         <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -13097,7 +13097,7 @@
       <c r="E35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -13115,7 +13115,7 @@
       <c r="K35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M35" s="2" t="s">
@@ -13136,16 +13136,16 @@
       <c r="R35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T35" s="3" t="s">
+      <c r="S35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="V35" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W35" s="2" t="s">
@@ -13258,7 +13258,7 @@
       <c r="AA36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB36" s="2" t="s">
+      <c r="AB36" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC36" s="2" t="s">
@@ -13276,7 +13276,7 @@
         <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -13284,7 +13284,7 @@
       <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -13296,7 +13296,7 @@
       <c r="H37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -13308,7 +13308,7 @@
       <c r="L37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -13335,7 +13335,7 @@
       <c r="U37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="V37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W37" s="2" t="s">
@@ -13350,7 +13350,7 @@
       <c r="Z37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA37" s="3" t="s">
+      <c r="AA37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB37" s="2" t="s">
@@ -13406,7 +13406,7 @@
       <c r="M38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O38" s="3" t="s">
@@ -13418,7 +13418,7 @@
       <c r="Q38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S38" s="2" t="s">
@@ -13471,13 +13471,13 @@
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="D39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -13495,7 +13495,7 @@
       <c r="K39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -13525,7 +13525,7 @@
       <c r="U39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V39" s="3" t="s">
+      <c r="V39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W39" s="2" t="s">
@@ -13561,7 +13561,7 @@
         <v>141</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
@@ -13608,7 +13608,7 @@
       <c r="Q40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S40" s="2" t="s">
@@ -13632,7 +13632,7 @@
       <c r="Y40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="Z40" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA40" s="2" t="s">
@@ -13644,7 +13644,7 @@
       <c r="AC40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD40" s="3" t="s">
+      <c r="AD40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE40" s="2" t="s">
@@ -13673,7 +13673,7 @@
       <c r="G41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -13691,7 +13691,7 @@
       <c r="M41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -13709,7 +13709,7 @@
       <c r="S41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U41" s="2" t="s">
@@ -13724,7 +13724,7 @@
       <c r="X41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y41" s="3" t="s">
+      <c r="Y41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z41" s="2" t="s">
@@ -13751,7 +13751,7 @@
         <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
@@ -13771,7 +13771,7 @@
       <c r="H42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -13801,7 +13801,7 @@
       <c r="R42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T42" s="2" t="s">
@@ -13825,13 +13825,13 @@
       <c r="Z42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA42" s="2" t="s">
+      <c r="AA42" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC42" s="2" t="s">
+      <c r="AC42" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD42" s="2" t="s">
@@ -13872,7 +13872,7 @@
       <c r="J43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -13890,7 +13890,7 @@
       <c r="P43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R43" s="2" t="s">
@@ -13902,7 +13902,7 @@
       <c r="T43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="U43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V43" s="2" t="s">
@@ -13920,10 +13920,10 @@
       <c r="Z43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB43" s="3" t="s">
+      <c r="AA43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC43" s="2" t="s">
@@ -13958,13 +13958,13 @@
       <c r="G44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -13991,7 +13991,7 @@
       <c r="R44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="S44" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T44" s="2" t="s">
@@ -14062,25 +14062,25 @@
       <c r="J45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="3" t="s">
+      <c r="O45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R45" s="2" t="s">
@@ -14098,16 +14098,16 @@
       <c r="V45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X45" s="3" t="s">
+      <c r="W45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="Z45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA45" s="2" t="s">
@@ -14116,7 +14116,7 @@
       <c r="AB45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC45" s="3" t="s">
+      <c r="AC45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD45" s="2" t="s">
@@ -14131,7 +14131,7 @@
         <v>147</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -14169,10 +14169,10 @@
       <c r="N46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P46" s="3" t="s">
+      <c r="O46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q46" s="2" t="s">
@@ -14187,7 +14187,7 @@
       <c r="T46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="U46" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V46" s="2" t="s">
@@ -14199,7 +14199,7 @@
       <c r="X46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y46" s="3" t="s">
+      <c r="Y46" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z46" s="2" t="s">
@@ -14214,7 +14214,7 @@
       <c r="AC46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD46" s="3" t="s">
+      <c r="AD46" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE46" s="2" t="s">
@@ -14226,7 +14226,7 @@
         <v>148</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
@@ -14240,7 +14240,7 @@
       <c r="F47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -14273,7 +14273,7 @@
       <c r="Q47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S47" s="2" t="s">
@@ -14321,7 +14321,7 @@
         <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -14329,7 +14329,7 @@
       <c r="D48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -14350,13 +14350,13 @@
       <c r="K48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N48" s="3" t="s">
+      <c r="L48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -14377,7 +14377,7 @@
       <c r="T48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="U48" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V48" s="2" t="s">
@@ -14386,22 +14386,22 @@
       <c r="W48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="X48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="Z48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC48" s="3" t="s">
+      <c r="AB48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD48" s="2" t="s">
@@ -14416,7 +14416,7 @@
         <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
@@ -14427,7 +14427,7 @@
       <c r="E49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -14442,7 +14442,7 @@
       <c r="J49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -14457,7 +14457,7 @@
       <c r="O49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P49" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q49" s="2" t="s">
@@ -14466,10 +14466,10 @@
       <c r="R49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T49" s="3" t="s">
+      <c r="S49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U49" s="2" t="s">
@@ -14511,7 +14511,7 @@
         <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
@@ -14519,7 +14519,7 @@
       <c r="D50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -14531,7 +14531,7 @@
       <c r="H50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -14606,7 +14606,7 @@
         <v>152</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
@@ -14629,13 +14629,13 @@
       <c r="I51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -14659,7 +14659,7 @@
       <c r="S51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U51" s="2" t="s">
@@ -14692,7 +14692,7 @@
       <c r="AD51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE51" s="3" t="s">
+      <c r="AE51" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -14745,7 +14745,7 @@
       <c r="P52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -14775,7 +14775,7 @@
       <c r="Z52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA52" s="3" t="s">
+      <c r="AA52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB52" s="2" t="s">
@@ -14784,7 +14784,7 @@
       <c r="AC52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD52" s="2" t="s">
+      <c r="AD52" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AE52" s="2" t="s">
@@ -14796,7 +14796,7 @@
         <v>154</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
@@ -14807,16 +14807,16 @@
       <c r="E53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="H53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -14855,10 +14855,10 @@
       <c r="U53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W53" s="3" t="s">
+      <c r="V53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X53" s="2" t="s">
@@ -14891,7 +14891,7 @@
         <v>155</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
@@ -14908,13 +14908,13 @@
       <c r="G54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J54" s="2" t="s">
+      <c r="H54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>74</v>
       </c>
       <c r="K54" s="2" t="s">
@@ -14926,7 +14926,7 @@
       <c r="M54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O54" s="2" t="s">
@@ -14956,13 +14956,13 @@
       <c r="W54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z54" s="3" t="s">
+      <c r="X54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA54" s="2" t="s">
@@ -14986,7 +14986,7 @@
         <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
@@ -15039,7 +15039,7 @@
       <c r="S55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U55" s="2" t="s">
@@ -15110,7 +15110,7 @@
       <c r="K56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M56" s="2" t="s">
@@ -15119,7 +15119,7 @@
       <c r="N56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P56" s="2" t="s">
@@ -15143,7 +15143,7 @@
       <c r="V56" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="W56" s="3" t="s">
+      <c r="W56" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X56" s="2" t="s">
@@ -15176,7 +15176,7 @@
         <v>158</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
@@ -15208,7 +15208,7 @@
       <c r="L57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -15256,7 +15256,7 @@
       <c r="AB57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC57" s="2" t="s">
+      <c r="AC57" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD57" s="2" t="s">
@@ -15271,7 +15271,7 @@
         <v>159</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
@@ -15279,13 +15279,13 @@
       <c r="D58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -15354,10 +15354,10 @@
       <c r="AC58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AD58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE58" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15366,7 +15366,7 @@
         <v>160</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
@@ -15392,7 +15392,7 @@
       <c r="J59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L59" s="2" t="s">
@@ -15404,7 +15404,7 @@
       <c r="N59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P59" s="2" t="s">
@@ -15419,7 +15419,7 @@
       <c r="S59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="T59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U59" s="2" t="s">
@@ -15434,7 +15434,7 @@
       <c r="X59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Y59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z59" s="2" t="s">
@@ -15443,7 +15443,7 @@
       <c r="AA59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="AB59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC59" s="2" t="s">
@@ -15461,7 +15461,7 @@
         <v>161</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
@@ -15469,7 +15469,7 @@
       <c r="D60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -15493,7 +15493,7 @@
       <c r="L60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -15508,7 +15508,7 @@
       <c r="Q60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="R60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S60" s="2" t="s">
@@ -15517,7 +15517,7 @@
       <c r="T60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="U60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V60" s="2" t="s">
@@ -15532,10 +15532,10 @@
       <c r="Y60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA60" s="3" t="s">
+      <c r="Z60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB60" s="2" t="s">
@@ -15561,7 +15561,7 @@
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -15591,13 +15591,13 @@
       <c r="M61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="N61" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q61" s="2" t="s">
@@ -15621,7 +15621,7 @@
       <c r="W61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X61" s="3" t="s">
+      <c r="X61" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y61" s="2" t="s">
@@ -15636,7 +15636,7 @@
       <c r="AB61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC61" s="3" t="s">
+      <c r="AC61" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD61" s="2" t="s">
@@ -15668,7 +15668,7 @@
       <c r="G62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -15680,7 +15680,7 @@
       <c r="K62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M62" s="2" t="s">
@@ -15692,7 +15692,7 @@
       <c r="O62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q62" s="3" t="s">
@@ -15701,7 +15701,7 @@
       <c r="R62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T62" s="2" t="s">
@@ -15751,10 +15751,10 @@
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -15778,7 +15778,7 @@
       <c r="L63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -15790,7 +15790,7 @@
       <c r="P63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="Q63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R63" s="2" t="s">
@@ -15820,7 +15820,7 @@
       <c r="Z63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA63" s="2" t="s">
+      <c r="AA63" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AB63" s="2" t="s">
@@ -15841,7 +15841,7 @@
         <v>165</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
@@ -15936,7 +15936,7 @@
         <v>166</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>18</v>
@@ -15953,16 +15953,16 @@
       <c r="G65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="H65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L65" s="2" t="s">
@@ -15989,7 +15989,7 @@
       <c r="S65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T65" s="3" t="s">
+      <c r="T65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U65" s="2" t="s">
@@ -15998,13 +15998,13 @@
       <c r="V65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W65" s="3" t="s">
+      <c r="W65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y65" s="2" t="s">
+      <c r="Y65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z65" s="2" t="s">
@@ -16013,7 +16013,7 @@
       <c r="AA65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB65" s="3" t="s">
+      <c r="AB65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC65" s="2" t="s">
@@ -16042,7 +16042,7 @@
       <c r="E66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -16057,7 +16057,7 @@
       <c r="J66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L66" s="2" t="s">
@@ -16090,7 +16090,7 @@
       <c r="U66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V66" s="3" t="s">
+      <c r="V66" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W66" s="2" t="s">
@@ -16105,7 +16105,7 @@
       <c r="Z66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA66" s="3" t="s">
+      <c r="AA66" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB66" s="2" t="s">
@@ -16117,7 +16117,7 @@
       <c r="AD66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE66" s="2" t="s">
+      <c r="AE66" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16126,7 +16126,7 @@
         <v>168</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
@@ -16146,7 +16146,7 @@
       <c r="H67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J67" s="2" t="s">
@@ -16164,10 +16164,10 @@
       <c r="N67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P67" s="2" t="s">
+      <c r="O67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q67" s="2" t="s">
@@ -16194,7 +16194,7 @@
       <c r="X67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y67" s="3" t="s">
+      <c r="Y67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z67" s="2" t="s">
@@ -16206,13 +16206,13 @@
       <c r="AB67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE67" s="3" t="s">
+      <c r="AC67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE67" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16221,7 +16221,7 @@
         <v>169</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
@@ -16286,7 +16286,7 @@
       <c r="W68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X68" s="2" t="s">
+      <c r="X68" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y68" s="2" t="s">
@@ -16298,7 +16298,7 @@
       <c r="AA68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB68" s="2" t="s">
+      <c r="AB68" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC68" s="2" t="s">
@@ -16316,7 +16316,7 @@
         <v>170</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
@@ -16327,7 +16327,7 @@
       <c r="E69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -16351,7 +16351,7 @@
       <c r="M69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="N69" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O69" s="2" t="s">
@@ -16366,7 +16366,7 @@
       <c r="R69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S69" s="2" t="s">
+      <c r="S69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T69" s="2" t="s">
@@ -16378,7 +16378,7 @@
       <c r="V69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W69" s="2" t="s">
+      <c r="W69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X69" s="2" t="s">
@@ -16399,7 +16399,7 @@
       <c r="AC69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD69" s="2" t="s">
+      <c r="AD69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AE69" s="2" t="s">
@@ -16434,13 +16434,13 @@
       <c r="I70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="L70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M70" s="2" t="s">
@@ -16461,7 +16461,7 @@
       <c r="R70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S70" s="3" t="s">
+      <c r="S70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T70" s="2" t="s">
@@ -16476,13 +16476,13 @@
       <c r="W70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X70" s="3" t="s">
+      <c r="X70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="3" t="s">
+      <c r="Z70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA70" s="2" t="s">
@@ -16511,10 +16511,10 @@
       <c r="C71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -16535,7 +16535,7 @@
       <c r="K71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="L71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M71" s="2" t="s">
@@ -16601,7 +16601,7 @@
         <v>173</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
@@ -16612,13 +16612,13 @@
       <c r="E72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -16636,7 +16636,7 @@
       <c r="M72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="N72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O72" s="2" t="s">
@@ -16645,7 +16645,7 @@
       <c r="P72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="Q72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R72" s="2" t="s">
@@ -16666,13 +16666,13 @@
       <c r="W72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X72" s="2" t="s">
+      <c r="X72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z72" s="3" t="s">
+      <c r="Z72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA72" s="2" t="s">
@@ -16681,7 +16681,7 @@
       <c r="AB72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC72" s="3" t="s">
+      <c r="AC72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD72" s="2" t="s">
@@ -16701,13 +16701,13 @@
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -16716,13 +16716,13 @@
       <c r="H73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L73" s="2" t="s">
@@ -16734,7 +16734,7 @@
       <c r="N73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O73" s="3" t="s">
+      <c r="O73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P73" s="2" t="s">
@@ -16743,7 +16743,7 @@
       <c r="Q73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R73" s="3" t="s">
+      <c r="R73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S73" s="2" t="s">
@@ -16761,16 +16761,16 @@
       <c r="W73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y73" s="2" t="s">
+      <c r="X73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y73" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA73" s="3" t="s">
+      <c r="AA73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB73" s="2" t="s">
@@ -16791,7 +16791,7 @@
         <v>175</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
@@ -16823,10 +16823,10 @@
       <c r="L74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N74" s="3" t="s">
+      <c r="M74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O74" s="2" t="s">
@@ -16835,7 +16835,7 @@
       <c r="P74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="Q74" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R74" s="2" t="s">
@@ -16847,13 +16847,13 @@
       <c r="T74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U74" s="3" t="s">
+      <c r="U74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W74" s="3" t="s">
+      <c r="W74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X74" s="2" t="s">
@@ -16877,7 +16877,7 @@
       <c r="AD74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE74" s="3" t="s">
+      <c r="AE74" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16886,7 +16886,7 @@
         <v>176</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
@@ -16900,7 +16900,7 @@
       <c r="F75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -16924,10 +16924,10 @@
       <c r="N75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P75" s="2" t="s">
+      <c r="O75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q75" s="2" t="s">
@@ -16942,7 +16942,7 @@
       <c r="T75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U75" s="2" t="s">
+      <c r="U75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V75" s="2" t="s">
@@ -16954,7 +16954,7 @@
       <c r="X75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y75" s="3" t="s">
+      <c r="Y75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z75" s="2" t="s">
@@ -16966,7 +16966,7 @@
       <c r="AB75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC75" s="2" t="s">
+      <c r="AC75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD75" s="2" t="s">
@@ -16989,7 +16989,7 @@
       <c r="D76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -17010,10 +17010,10 @@
       <c r="K76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M76" s="2" t="s">
+      <c r="L76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -17058,13 +17058,13 @@
       <c r="AA76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB76" s="3" t="s">
+      <c r="AB76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD76" s="3" t="s">
+      <c r="AD76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE76" s="2" t="s">
@@ -17076,7 +17076,7 @@
         <v>178</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
@@ -17090,7 +17090,7 @@
       <c r="F77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -17117,7 +17117,7 @@
       <c r="O77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="P77" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q77" s="2" t="s">
@@ -17132,10 +17132,10 @@
       <c r="T77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U77" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V77" s="3" t="s">
+      <c r="U77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V77" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W77" s="2" t="s">
@@ -17144,7 +17144,7 @@
       <c r="X77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y77" s="3" t="s">
+      <c r="Y77" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z77" s="2" t="s">
@@ -17176,7 +17176,7 @@
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -17221,10 +17221,10 @@
       <c r="R78" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S78" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T78" s="3" t="s">
+      <c r="S78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U78" s="2" t="s">
@@ -17266,7 +17266,7 @@
         <v>180</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -17274,7 +17274,7 @@
       <c r="D79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -17295,7 +17295,7 @@
       <c r="K79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="L79" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M79" s="2" t="s">
@@ -17325,10 +17325,10 @@
       <c r="U79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V79" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W79" s="2" t="s">
+      <c r="V79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W79" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X79" s="2" t="s">
@@ -17343,7 +17343,7 @@
       <c r="AA79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB79" s="3" t="s">
+      <c r="AB79" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC79" s="2" t="s">
@@ -17361,7 +17361,7 @@
         <v>181</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
@@ -17384,7 +17384,7 @@
       <c r="I80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K80" s="2" t="s">
@@ -17405,10 +17405,10 @@
       <c r="P80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q80" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R80" s="2" t="s">
+      <c r="Q80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R80" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S80" s="2" t="s">
@@ -17423,7 +17423,7 @@
       <c r="V80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W80" s="3" t="s">
+      <c r="W80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X80" s="2" t="s">
@@ -17438,13 +17438,13 @@
       <c r="AA80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC80" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD80" s="2" t="s">
+      <c r="AB80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD80" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AE80" s="2" t="s">
@@ -17456,12 +17456,12 @@
         <v>182</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -17479,7 +17479,7 @@
       <c r="I81" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="3" t="s">
         <v>74</v>
       </c>
       <c r="K81" s="2" t="s">
@@ -17527,10 +17527,10 @@
       <c r="Y81" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z81" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA81" s="2" t="s">
+      <c r="Z81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA81" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AB81" s="2" t="s">
@@ -17565,10 +17565,10 @@
       <c r="F82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H82" s="3" t="s">
+      <c r="G82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I82" s="3" t="s">
@@ -17577,7 +17577,7 @@
       <c r="J82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K82" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L82" s="2" t="s">
@@ -17589,7 +17589,7 @@
       <c r="N82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O82" s="3" t="s">
+      <c r="O82" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P82" s="2" t="s">
@@ -17663,7 +17663,7 @@
       <c r="G83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -17678,7 +17678,7 @@
       <c r="L83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M83" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -17696,7 +17696,7 @@
       <c r="R83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="S83" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T83" s="2" t="s">
@@ -17705,7 +17705,7 @@
       <c r="U83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V83" s="2" t="s">
+      <c r="V83" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W83" s="2" t="s">
@@ -17741,7 +17741,7 @@
         <v>185</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
@@ -17752,7 +17752,7 @@
       <c r="E84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -17767,7 +17767,7 @@
       <c r="J84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -17776,13 +17776,13 @@
       <c r="M84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="N84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="P84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q84" s="2" t="s">
@@ -17806,7 +17806,7 @@
       <c r="W84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X84" s="3" t="s">
+      <c r="X84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y84" s="2" t="s">
@@ -17815,7 +17815,7 @@
       <c r="Z84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA84" s="3" t="s">
+      <c r="AA84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB84" s="2" t="s">
@@ -17824,7 +17824,7 @@
       <c r="AC84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD84" s="3" t="s">
+      <c r="AD84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE84" s="2" t="s">
@@ -17836,7 +17836,7 @@
         <v>186</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
@@ -17853,7 +17853,7 @@
       <c r="G85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I85" s="2" t="s">
@@ -17883,19 +17883,19 @@
       <c r="Q85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R85" s="3" t="s">
+      <c r="R85" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="T85" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V85" s="2" t="s">
+      <c r="V85" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W85" s="2" t="s">
@@ -17907,7 +17907,7 @@
       <c r="Y85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z85" s="3" t="s">
+      <c r="Z85" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA85" s="2" t="s">
@@ -17919,7 +17919,7 @@
       <c r="AC85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD85" s="3" t="s">
+      <c r="AD85" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE85" s="2" t="s">
@@ -17942,7 +17942,7 @@
       <c r="E86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G86" s="2" t="s">
@@ -17963,13 +17963,13 @@
       <c r="L86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="M86" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P86" s="2" t="s">
@@ -17990,10 +17990,10 @@
       <c r="U86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V86" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W86" s="2" t="s">
+      <c r="V86" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W86" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X86" s="2" t="s">
@@ -18008,7 +18008,7 @@
       <c r="AA86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB86" s="2" t="s">
+      <c r="AB86" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC86" s="2" t="s">
@@ -18026,7 +18026,7 @@
         <v>188</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>18</v>
@@ -18043,7 +18043,7 @@
       <c r="G87" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -18091,7 +18091,7 @@
       <c r="W87" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X87" s="2" t="s">
+      <c r="X87" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y87" s="2" t="s">
@@ -18100,7 +18100,7 @@
       <c r="Z87" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA87" s="2" t="s">
+      <c r="AA87" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AB87" s="2" t="s">
@@ -18135,7 +18135,7 @@
       <c r="F88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -18144,19 +18144,19 @@
       <c r="I88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L88" s="2" t="s">
+      <c r="J88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L88" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="N88" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O88" s="2" t="s">
@@ -18168,7 +18168,7 @@
       <c r="Q88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R88" s="3" t="s">
+      <c r="R88" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S88" s="2" t="s">
@@ -18189,7 +18189,7 @@
       <c r="X88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y88" s="3" t="s">
+      <c r="Y88" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z88" s="2" t="s">
@@ -18216,7 +18216,7 @@
         <v>190</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -18224,7 +18224,7 @@
       <c r="D89" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -18272,7 +18272,7 @@
       <c r="T89" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U89" s="2" t="s">
+      <c r="U89" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V89" s="2" t="s">
@@ -18319,7 +18319,7 @@
       <c r="D90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -18331,7 +18331,7 @@
       <c r="H90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J90" s="2" t="s">
@@ -18343,13 +18343,13 @@
       <c r="L90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="O90" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P90" s="2" t="s">
@@ -18385,16 +18385,16 @@
       <c r="Z90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA90" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB90" s="3" t="s">
+      <c r="AA90" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB90" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD90" s="2" t="s">
+      <c r="AD90" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AE90" s="2" t="s">
@@ -18406,7 +18406,7 @@
         <v>192</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
@@ -18420,13 +18420,13 @@
       <c r="F91" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J91" s="2" t="s">
@@ -18450,7 +18450,7 @@
       <c r="P91" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R91" s="2" t="s">
@@ -18501,7 +18501,7 @@
         <v>193</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
@@ -18527,10 +18527,10 @@
       <c r="J92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L92" s="3" t="s">
+      <c r="K92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M92" s="2" t="s">
@@ -18551,25 +18551,25 @@
       <c r="R92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S92" s="3" t="s">
+      <c r="S92" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U92" s="3" t="s">
+      <c r="U92" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W92" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X92" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y92" s="2" t="s">
+      <c r="W92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y92" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z92" s="2" t="s">
@@ -18581,7 +18581,7 @@
       <c r="AB92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC92" s="2" t="s">
+      <c r="AC92" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD92" s="2" t="s">
@@ -18596,12 +18596,12 @@
         <v>194</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -18619,7 +18619,7 @@
       <c r="I93" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K93" s="2" t="s">
@@ -18631,13 +18631,13 @@
       <c r="M93" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="3" t="s">
+      <c r="N93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P93" s="3" t="s">
+      <c r="P93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q93" s="2" t="s">
@@ -18649,7 +18649,7 @@
       <c r="S93" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T93" s="3" t="s">
+      <c r="T93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U93" s="2" t="s">
@@ -18658,10 +18658,10 @@
       <c r="V93" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W93" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X93" s="3" t="s">
+      <c r="W93" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y93" s="2" t="s">
@@ -18676,7 +18676,7 @@
       <c r="AB93" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC93" s="3" t="s">
+      <c r="AC93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD93" s="2" t="s">
@@ -18717,7 +18717,7 @@
       <c r="J94" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L94" s="2" t="s">
@@ -18732,7 +18732,7 @@
       <c r="O94" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P94" s="2" t="s">
+      <c r="P94" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q94" s="2" t="s">
@@ -18741,7 +18741,7 @@
       <c r="R94" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S94" s="2" t="s">
+      <c r="S94" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T94" s="2" t="s">
@@ -18786,7 +18786,7 @@
         <v>196</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
@@ -18821,25 +18821,25 @@
       <c r="M95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O95" s="3" t="s">
+      <c r="N95" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q95" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R95" s="2" t="s">
+      <c r="Q95" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R95" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T95" s="3" t="s">
+      <c r="T95" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U95" s="2" t="s">
@@ -18854,7 +18854,7 @@
       <c r="X95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y95" s="3" t="s">
+      <c r="Y95" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z95" s="2" t="s">
@@ -18881,12 +18881,12 @@
         <v>197</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -18895,22 +18895,22 @@
       <c r="F96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I96" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L96" s="3" t="s">
+      <c r="K96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L96" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M96" s="2" t="s">
@@ -18922,7 +18922,7 @@
       <c r="O96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P96" s="3" t="s">
+      <c r="P96" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q96" s="2" t="s">
@@ -18940,7 +18940,7 @@
       <c r="U96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V96" s="3" t="s">
+      <c r="V96" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W96" s="2" t="s">
@@ -18952,13 +18952,13 @@
       <c r="Y96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z96" s="3" t="s">
+      <c r="Z96" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB96" s="3" t="s">
+      <c r="AB96" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC96" s="2" t="s">
@@ -18967,7 +18967,7 @@
       <c r="AD96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE96" s="3" t="s">
+      <c r="AE96" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       <c r="C97" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -19032,7 +19032,7 @@
       <c r="T97" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U97" s="3" t="s">
+      <c r="U97" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V97" s="2" t="s">
@@ -19071,7 +19071,7 @@
         <v>199</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
@@ -19088,13 +19088,13 @@
       <c r="G98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K98" s="2" t="s">
@@ -19103,7 +19103,7 @@
       <c r="L98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M98" s="3" t="s">
+      <c r="M98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -19115,13 +19115,13 @@
       <c r="P98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q98" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S98" s="3" t="s">
+      <c r="Q98" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T98" s="2" t="s">
@@ -19154,7 +19154,7 @@
       <c r="AC98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD98" s="3" t="s">
+      <c r="AD98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE98" s="2" t="s">
@@ -19174,7 +19174,7 @@
       <c r="D99" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -19198,10 +19198,10 @@
       <c r="L99" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N99" s="2" t="s">
+      <c r="M99" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N99" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O99" s="2" t="s">
@@ -19246,13 +19246,13 @@
       <c r="AB99" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC99" s="3" t="s">
+      <c r="AC99" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD99" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE99" s="3" t="s">
+      <c r="AE99" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -19269,7 +19269,7 @@
       <c r="D100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -19290,7 +19290,7 @@
       <c r="K100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="L100" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M100" s="2" t="s">
@@ -19329,19 +19329,19 @@
       <c r="X100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y100" s="3" t="s">
+      <c r="Y100" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA100" s="3" t="s">
+      <c r="AA100" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC100" s="3" t="s">
+      <c r="AC100" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD100" s="2" t="s">
@@ -19361,19 +19361,19 @@
       <c r="C101" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="D101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I101" s="2" t="s">
@@ -19388,10 +19388,10 @@
       <c r="L101" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N101" s="3" t="s">
+      <c r="M101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O101" s="2" t="s">
@@ -19400,16 +19400,16 @@
       <c r="P101" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T101" s="2" t="s">
+      <c r="Q101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U101" s="2" t="s">
@@ -19439,7 +19439,7 @@
       <c r="AC101" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD101" s="3" t="s">
+      <c r="AD101" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE101" s="2" t="s">
@@ -19474,7 +19474,7 @@
       <c r="I102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J102" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K102" s="2" t="s">
@@ -19501,10 +19501,10 @@
       <c r="R102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S102" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="S102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T102" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U102" s="2" t="s">
@@ -19519,7 +19519,7 @@
       <c r="X102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y102" s="2" t="s">
+      <c r="Y102" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z102" s="2" t="s">
@@ -19528,7 +19528,7 @@
       <c r="AA102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AB102" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC102" s="2" t="s">
@@ -19546,7 +19546,7 @@
         <v>204</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
@@ -19560,19 +19560,19 @@
       <c r="F103" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K103" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L103" s="2" t="s">
@@ -19587,13 +19587,13 @@
       <c r="O103" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P103" s="3" t="s">
+      <c r="P103" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R103" s="2" t="s">
+      <c r="R103" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S103" s="2" t="s">
@@ -19608,16 +19608,16 @@
       <c r="V103" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W103" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X103" s="3" t="s">
+      <c r="W103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X103" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y103" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z103" s="3" t="s">
+      <c r="Z103" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA103" s="2" t="s">
@@ -19706,7 +19706,7 @@
       <c r="W104" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X104" s="3" t="s">
+      <c r="X104" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y104" s="2" t="s">
@@ -19727,7 +19727,7 @@
       <c r="AD104" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE104" s="3" t="s">
+      <c r="AE104" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
       <c r="G105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I105" s="2" t="s">
@@ -19795,7 +19795,7 @@
       <c r="U105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V105" s="3" t="s">
+      <c r="V105" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W105" s="2" t="s">
@@ -19807,16 +19807,16 @@
       <c r="Y105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z105" s="3" t="s">
+      <c r="Z105" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB105" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC105" s="3" t="s">
+      <c r="AB105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC105" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD105" s="2" t="s">
@@ -19836,13 +19836,13 @@
       <c r="C106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G106" s="2" t="s">
@@ -19926,7 +19926,7 @@
         <v>208</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>18</v>
@@ -19964,7 +19964,7 @@
       <c r="N107" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O107" s="3" t="s">
+      <c r="O107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P107" s="2" t="s">
@@ -19976,7 +19976,7 @@
       <c r="R107" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S107" s="3" t="s">
+      <c r="S107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T107" s="2" t="s">
@@ -19994,7 +19994,7 @@
       <c r="X107" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y107" s="3" t="s">
+      <c r="Y107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z107" s="2" t="s">
@@ -20006,10 +20006,10 @@
       <c r="AB107" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC107" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD107" s="3" t="s">
+      <c r="AC107" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE107" s="2" t="s">
@@ -20021,7 +20021,7 @@
         <v>209</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
@@ -20035,7 +20035,7 @@
       <c r="F108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -20053,22 +20053,22 @@
       <c r="L108" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M108" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N108" s="3" t="s">
+      <c r="M108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N108" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P108" s="2" t="s">
+      <c r="P108" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R108" s="3" t="s">
+      <c r="R108" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S108" s="2" t="s">
@@ -20083,7 +20083,7 @@
       <c r="V108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W108" s="3" t="s">
+      <c r="W108" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X108" s="2" t="s">
@@ -20095,10 +20095,10 @@
       <c r="Z108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA108" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB108" s="2" t="s">
+      <c r="AA108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB108" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC108" s="2" t="s">
@@ -20124,25 +20124,25 @@
       <c r="D109" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K109" s="3" t="s">
+      <c r="G109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L109" s="2" t="s">
@@ -20157,10 +20157,10 @@
       <c r="O109" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P109" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q109" s="3" t="s">
+      <c r="P109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q109" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R109" s="2" t="s">
@@ -20169,19 +20169,19 @@
       <c r="S109" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T109" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U109" s="3" t="s">
+      <c r="T109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U109" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V109" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W109" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X109" s="2" t="s">
+      <c r="W109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X109" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y109" s="2" t="s">
@@ -20222,7 +20222,7 @@
       <c r="E110" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G110" s="2" t="s">
@@ -20249,7 +20249,7 @@
       <c r="N110" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O110" s="3" t="s">
+      <c r="O110" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P110" s="2" t="s">
@@ -20267,7 +20267,7 @@
       <c r="T110" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U110" s="3" t="s">
+      <c r="U110" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V110" s="2" t="s">
@@ -20276,7 +20276,7 @@
       <c r="W110" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X110" s="3" t="s">
+      <c r="X110" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y110" s="2" t="s">
@@ -20306,7 +20306,7 @@
         <v>212</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
@@ -20317,7 +20317,7 @@
       <c r="E111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G111" s="2" t="s">
@@ -20350,7 +20350,7 @@
       <c r="P111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q111" s="3" t="s">
+      <c r="Q111" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R111" s="2" t="s">
@@ -20359,7 +20359,7 @@
       <c r="S111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T111" s="3" t="s">
+      <c r="T111" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U111" s="2" t="s">
@@ -20383,13 +20383,13 @@
       <c r="AA111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB111" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC111" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD111" s="2" t="s">
+      <c r="AB111" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC111" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD111" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AE111" s="2" t="s">
@@ -20406,7 +20406,7 @@
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -20421,7 +20421,7 @@
       <c r="H112" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="I112" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J112" s="2" t="s">
@@ -20472,7 +20472,7 @@
       <c r="Y112" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z112" s="2" t="s">
+      <c r="Z112" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA112" s="2" t="s">
@@ -20487,7 +20487,7 @@
       <c r="AD112" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE112" s="2" t="s">
+      <c r="AE112" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -20496,12 +20496,12 @@
         <v>214</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -20516,16 +20516,16 @@
       <c r="H113" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I113" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L113" s="3" t="s">
+      <c r="I113" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M113" s="2" t="s">
@@ -20540,7 +20540,7 @@
       <c r="P113" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q113" s="2" t="s">
+      <c r="Q113" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R113" s="2" t="s">
@@ -20558,7 +20558,7 @@
       <c r="V113" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W113" s="3" t="s">
+      <c r="W113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X113" s="2" t="s">
@@ -20579,7 +20579,7 @@
       <c r="AC113" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD113" s="3" t="s">
+      <c r="AD113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE113" s="2" t="s">
@@ -20591,7 +20591,7 @@
         <v>215</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -20599,13 +20599,13 @@
       <c r="D114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -20641,7 +20641,7 @@
       <c r="R114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S114" s="3" t="s">
+      <c r="S114" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T114" s="2" t="s">
@@ -20662,10 +20662,10 @@
       <c r="Y114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z114" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA114" s="3" t="s">
+      <c r="Z114" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA114" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB114" s="2" t="s">
@@ -20677,7 +20677,7 @@
       <c r="AD114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE114" s="3" t="s">
+      <c r="AE114" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -20694,7 +20694,7 @@
       <c r="D115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -20709,7 +20709,7 @@
       <c r="I115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K115" s="2" t="s">
@@ -20718,22 +20718,22 @@
       <c r="L115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M115" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N115" s="3" t="s">
+      <c r="M115" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P115" s="3" t="s">
+      <c r="P115" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R115" s="2" t="s">
+      <c r="R115" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S115" s="2" t="s">
@@ -20745,7 +20745,7 @@
       <c r="U115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V115" s="3" t="s">
+      <c r="V115" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W115" s="2" t="s">
@@ -20754,7 +20754,7 @@
       <c r="X115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y115" s="3" t="s">
+      <c r="Y115" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z115" s="2" t="s">
@@ -20766,7 +20766,7 @@
       <c r="AB115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC115" s="2" t="s">
+      <c r="AC115" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD115" s="2" t="s">
@@ -20792,7 +20792,7 @@
       <c r="E116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G116" s="2" t="s">
@@ -20828,7 +20828,7 @@
       <c r="Q116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R116" s="3" t="s">
+      <c r="R116" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S116" s="2" t="s">
@@ -20837,7 +20837,7 @@
       <c r="T116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U116" s="2" t="s">
+      <c r="U116" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V116" s="2" t="s">
@@ -20852,7 +20852,7 @@
       <c r="Y116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z116" s="2" t="s">
+      <c r="Z116" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA116" s="2" t="s">
@@ -20876,7 +20876,7 @@
         <v>218</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>18</v>
@@ -20890,7 +20890,7 @@
       <c r="F117" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H117" s="2" t="s">
@@ -20902,16 +20902,16 @@
       <c r="J117" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="K117" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M117" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N117" s="3" t="s">
+      <c r="M117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O117" s="2" t="s">
@@ -20944,7 +20944,7 @@
       <c r="X117" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y117" s="2" t="s">
+      <c r="Y117" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z117" s="2" t="s">
@@ -20971,15 +20971,15 @@
         <v>219</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="D118" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
@@ -21003,49 +21003,49 @@
       <c r="L118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M118" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N118" s="2" t="s">
+      <c r="M118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N118" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P118" s="3" t="s">
+      <c r="P118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="3" t="s">
+      <c r="R118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T118" s="3" t="s">
+      <c r="T118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V118" s="2" t="s">
+      <c r="V118" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X118" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y118" s="3" t="s">
+      <c r="X118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA118" s="3" t="s">
+      <c r="AA118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB118" s="2" t="s">
@@ -21054,7 +21054,7 @@
       <c r="AC118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD118" s="2" t="s">
+      <c r="AD118" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AE118" s="2" t="s">
@@ -21066,12 +21066,12 @@
         <v>220</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -21140,7 +21140,7 @@
       <c r="Z119" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA119" s="2" t="s">
+      <c r="AA119" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AB119" s="2" t="s">
@@ -21149,7 +21149,7 @@
       <c r="AC119" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD119" s="3" t="s">
+      <c r="AD119" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE119" s="2" t="s">
@@ -21161,7 +21161,7 @@
         <v>221</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
@@ -21172,7 +21172,7 @@
       <c r="E120" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G120" s="2" t="s">
@@ -21199,7 +21199,7 @@
       <c r="N120" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O120" s="2" t="s">
+      <c r="O120" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P120" s="2" t="s">
@@ -21211,7 +21211,7 @@
       <c r="R120" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S120" s="2" t="s">
+      <c r="S120" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T120" s="2" t="s">
@@ -21223,7 +21223,7 @@
       <c r="V120" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W120" s="2" t="s">
+      <c r="W120" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X120" s="2" t="s">
@@ -21241,7 +21241,7 @@
       <c r="AB120" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC120" s="3" t="s">
+      <c r="AC120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD120" s="2" t="s">
@@ -21276,10 +21276,10 @@
       <c r="H121" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I121" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="I121" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K121" s="2" t="s">
@@ -21294,7 +21294,7 @@
       <c r="N121" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O121" s="3" t="s">
+      <c r="O121" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P121" s="2" t="s">
@@ -21351,7 +21351,7 @@
         <v>223</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
@@ -21365,7 +21365,7 @@
       <c r="F122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H122" s="2" t="s">
@@ -21377,7 +21377,7 @@
       <c r="J122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L122" s="2" t="s">
@@ -21404,7 +21404,7 @@
       <c r="S122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T122" s="2" t="s">
+      <c r="T122" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U122" s="2" t="s">
@@ -21413,22 +21413,22 @@
       <c r="V122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W122" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X122" s="2" t="s">
+      <c r="W122" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X122" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z122" s="3" t="s">
+      <c r="Z122" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB122" s="3" t="s">
+      <c r="AB122" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC122" s="2" t="s">
@@ -21437,7 +21437,7 @@
       <c r="AD122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE122" s="3" t="s">
+      <c r="AE122" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -21446,7 +21446,7 @@
         <v>224</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -21502,10 +21502,10 @@
       <c r="T123" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U123" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V123" s="3" t="s">
+      <c r="U123" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V123" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W123" s="2" t="s">
@@ -21558,7 +21558,7 @@
       <c r="G124" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I124" s="2" t="s">
@@ -21582,7 +21582,7 @@
       <c r="O124" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P124" s="3" t="s">
+      <c r="P124" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q124" s="2" t="s">
@@ -21591,7 +21591,7 @@
       <c r="R124" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S124" s="3" t="s">
+      <c r="S124" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T124" s="2" t="s">
@@ -21618,7 +21618,7 @@
       <c r="AA124" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB124" s="2" t="s">
+      <c r="AB124" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC124" s="2" t="s">
@@ -21636,7 +21636,7 @@
         <v>226</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
@@ -21644,19 +21644,19 @@
       <c r="D125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="I125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J125" s="2" t="s">
@@ -21671,7 +21671,7 @@
       <c r="M125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N125" s="3" t="s">
+      <c r="N125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O125" s="2" t="s">
@@ -21692,7 +21692,7 @@
       <c r="T125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U125" s="3" t="s">
+      <c r="U125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V125" s="2" t="s">
@@ -21710,7 +21710,7 @@
       <c r="Z125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA125" s="3" t="s">
+      <c r="AA125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB125" s="2" t="s">
@@ -21722,7 +21722,7 @@
       <c r="AD125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE125" s="2" t="s">
+      <c r="AE125" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -21751,10 +21751,10 @@
       <c r="H126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J126" s="2" t="s">
+      <c r="I126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>74</v>
       </c>
       <c r="K126" s="2" t="s">
@@ -21772,7 +21772,7 @@
       <c r="O126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P126" s="2" t="s">
+      <c r="P126" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q126" s="2" t="s">
@@ -21784,7 +21784,7 @@
       <c r="S126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T126" s="3" t="s">
+      <c r="T126" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U126" s="2" t="s">
@@ -21796,7 +21796,7 @@
       <c r="W126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X126" s="3" t="s">
+      <c r="X126" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y126" s="2" t="s">
@@ -21826,12 +21826,12 @@
         <v>228</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -21843,7 +21843,7 @@
       <c r="G127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I127" s="2" t="s">
@@ -21864,7 +21864,7 @@
       <c r="N127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O127" s="3" t="s">
+      <c r="O127" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P127" s="2" t="s">
@@ -21885,7 +21885,7 @@
       <c r="U127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V127" s="3" t="s">
+      <c r="V127" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W127" s="2" t="s">
@@ -21894,7 +21894,7 @@
       <c r="X127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y127" s="3" t="s">
+      <c r="Y127" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z127" s="2" t="s">
@@ -21909,7 +21909,7 @@
       <c r="AC127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD127" s="3" t="s">
+      <c r="AD127" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE127" s="2" t="s">
@@ -21941,19 +21941,19 @@
       <c r="H128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I128" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K128" s="3" t="s">
+      <c r="K128" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M128" s="3" t="s">
+      <c r="M128" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -21965,7 +21965,7 @@
       <c r="P128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q128" s="3" t="s">
+      <c r="Q128" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R128" s="2" t="s">
@@ -22001,13 +22001,13 @@
       <c r="AB128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC128" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD128" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE128" s="3" t="s">
+      <c r="AC128" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD128" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE128" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -22021,13 +22021,13 @@
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G129" s="2" t="s">
@@ -22039,19 +22039,19 @@
       <c r="I129" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L129" s="3" t="s">
+      <c r="L129" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N129" s="2" t="s">
+      <c r="N129" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O129" s="2" t="s">
@@ -22087,7 +22087,7 @@
       <c r="Y129" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z129" s="2" t="s">
+      <c r="Z129" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA129" s="2" t="s">
@@ -22102,7 +22102,7 @@
       <c r="AD129" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE129" s="2" t="s">
+      <c r="AE129" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       <c r="P130" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q130" s="2" t="s">
+      <c r="Q130" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R130" s="2" t="s">
@@ -22182,7 +22182,7 @@
       <c r="Y130" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z130" s="3" t="s">
+      <c r="Z130" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA130" s="2" t="s">
@@ -22191,7 +22191,7 @@
       <c r="AB130" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC130" s="3" t="s">
+      <c r="AC130" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD130" s="2" t="s">
@@ -22262,7 +22262,7 @@
       <c r="T131" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U131" s="2" t="s">
+      <c r="U131" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V131" s="2" t="s">
@@ -22283,7 +22283,7 @@
       <c r="AA131" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB131" s="3" t="s">
+      <c r="AB131" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC131" s="2" t="s">
@@ -22312,13 +22312,13 @@
       <c r="E132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I132" s="2" t="s">
@@ -22336,13 +22336,13 @@
       <c r="M132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N132" s="3" t="s">
+      <c r="N132" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P132" s="3" t="s">
+      <c r="P132" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q132" s="2" t="s">
@@ -22363,10 +22363,10 @@
       <c r="V132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W132" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X132" s="2" t="s">
+      <c r="W132" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X132" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y132" s="2" t="s">
@@ -22404,7 +22404,7 @@
       <c r="D133" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -22419,13 +22419,13 @@
       <c r="I133" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L133" s="3" t="s">
+      <c r="L133" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M133" s="2" t="s">
@@ -22434,7 +22434,7 @@
       <c r="N133" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O133" s="2" t="s">
+      <c r="O133" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P133" s="2" t="s">
@@ -22467,7 +22467,7 @@
       <c r="Y133" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z133" s="3" t="s">
+      <c r="Z133" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AA133" s="2" t="s">
@@ -22479,7 +22479,7 @@
       <c r="AC133" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD133" s="3" t="s">
+      <c r="AD133" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE133" s="2" t="s">
@@ -22517,7 +22517,7 @@
       <c r="J134" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L134" s="2" t="s">
@@ -22550,7 +22550,7 @@
       <c r="U134" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V134" s="3" t="s">
+      <c r="V134" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W134" s="2" t="s">
@@ -22571,7 +22571,7 @@
       <c r="AB134" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC134" s="3" t="s">
+      <c r="AC134" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AD134" s="2" t="s">
@@ -22609,7 +22609,7 @@
       <c r="I135" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="3" t="s">
         <v>74</v>
       </c>
       <c r="K135" s="2" t="s">
@@ -22642,7 +22642,7 @@
       <c r="T135" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U135" s="3" t="s">
+      <c r="U135" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V135" s="2" t="s">
@@ -22651,7 +22651,7 @@
       <c r="W135" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X135" s="3" t="s">
+      <c r="X135" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y135" s="2" t="s">
@@ -22681,7 +22681,7 @@
         <v>237</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
@@ -22692,7 +22692,7 @@
       <c r="E136" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G136" s="2" t="s">
@@ -22713,7 +22713,7 @@
       <c r="L136" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -22731,7 +22731,7 @@
       <c r="R136" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S136" s="3" t="s">
+      <c r="S136" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T136" s="2" t="s">
@@ -22749,7 +22749,7 @@
       <c r="X136" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y136" s="3" t="s">
+      <c r="Y136" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z136" s="2" t="s">
@@ -22784,7 +22784,7 @@
       <c r="D137" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F137" s="2" t="s">
@@ -22802,7 +22802,7 @@
       <c r="J137" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K137" s="3" t="s">
+      <c r="K137" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L137" s="2" t="s">
@@ -22871,7 +22871,7 @@
         <v>239</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -22891,7 +22891,7 @@
       <c r="H138" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I138" s="3" t="s">
+      <c r="I138" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J138" s="2" t="s">
@@ -22900,7 +22900,7 @@
       <c r="K138" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L138" s="2" t="s">
+      <c r="L138" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M138" s="2" t="s">
@@ -22924,7 +22924,7 @@
       <c r="S138" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T138" s="2" t="s">
+      <c r="T138" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U138" s="2" t="s">
@@ -22945,7 +22945,7 @@
       <c r="Z138" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA138" s="3" t="s">
+      <c r="AA138" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB138" s="2" t="s">
@@ -22966,7 +22966,7 @@
         <v>240</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -23019,13 +23019,13 @@
       <c r="S139" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T139" s="3" t="s">
+      <c r="T139" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U139" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="V139" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W139" s="2" t="s">
@@ -23061,12 +23061,12 @@
         <v>241</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -23099,13 +23099,13 @@
       <c r="N140" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O140" s="3" t="s">
+      <c r="O140" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q140" s="3" t="s">
+      <c r="Q140" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R140" s="2" t="s">
@@ -23147,7 +23147,7 @@
       <c r="AD140" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE140" s="3" t="s">
+      <c r="AE140" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -23156,7 +23156,7 @@
         <v>242</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
@@ -23197,7 +23197,7 @@
       <c r="O141" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P141" s="2" t="s">
+      <c r="P141" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q141" s="2" t="s">
@@ -23283,7 +23283,7 @@
       <c r="L142" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M142" s="3" t="s">
+      <c r="M142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -23328,7 +23328,7 @@
       <c r="AA142" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB142" s="3" t="s">
+      <c r="AB142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AC142" s="2" t="s">
@@ -23351,7 +23351,7 @@
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -23369,7 +23369,7 @@
       <c r="I143" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J143" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K143" s="2" t="s">
@@ -23381,7 +23381,7 @@
       <c r="M143" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N143" s="3" t="s">
+      <c r="N143" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O143" s="2" t="s">
@@ -23408,13 +23408,13 @@
       <c r="V143" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W143" s="3" t="s">
+      <c r="W143" s="2" t="s">
         <v>74</v>
       </c>
       <c r="X143" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y143" s="2" t="s">
+      <c r="Y143" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z143" s="2" t="s">
@@ -23423,7 +23423,7 @@
       <c r="AA143" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB143" s="2" t="s">
+      <c r="AB143" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC143" s="2" t="s">
@@ -23449,13 +23449,13 @@
       <c r="D144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G144" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H144" s="2" t="s">
@@ -23467,7 +23467,7 @@
       <c r="J144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="K144" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L144" s="2" t="s">
@@ -23500,22 +23500,22 @@
       <c r="U144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V144" s="3" t="s">
+      <c r="V144" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X144" s="3" t="s">
+      <c r="X144" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z144" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA144" s="2" t="s">
+      <c r="Z144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA144" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AB144" s="2" t="s">
@@ -23586,7 +23586,7 @@
       <c r="R145" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S145" s="2" t="s">
+      <c r="S145" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T145" s="2" t="s">
@@ -23598,19 +23598,19 @@
       <c r="V145" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W145" s="2" t="s">
+      <c r="W145" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X145" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y145" s="3" t="s">
+      <c r="Y145" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z145" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA145" s="3" t="s">
+      <c r="AA145" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB145" s="2" t="s">
@@ -23672,7 +23672,7 @@
       <c r="O146" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P146" s="3" t="s">
+      <c r="P146" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q146" s="2" t="s">
@@ -23684,10 +23684,10 @@
       <c r="S146" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T146" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U146" s="3" t="s">
+      <c r="T146" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U146" s="2" t="s">
         <v>74</v>
       </c>
       <c r="V146" s="2" t="s">
@@ -23726,7 +23726,7 @@
         <v>248</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
@@ -23737,7 +23737,7 @@
       <c r="E147" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G147" s="2" t="s">
@@ -23746,7 +23746,7 @@
       <c r="H147" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="I147" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J147" s="2" t="s">
@@ -23809,10 +23809,10 @@
       <c r="AC147" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD147" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE147" s="3" t="s">
+      <c r="AD147" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE147" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -23821,7 +23821,7 @@
         <v>249</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
@@ -23856,7 +23856,7 @@
       <c r="M148" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="N148" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O148" s="2" t="s">
@@ -23945,7 +23945,7 @@
       <c r="K149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L149" s="3" t="s">
+      <c r="L149" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M149" s="2" t="s">
@@ -23960,7 +23960,7 @@
       <c r="P149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q149" s="3" t="s">
+      <c r="Q149" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R149" s="2" t="s">
@@ -23987,7 +23987,7 @@
       <c r="Y149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z149" s="2" t="s">
+      <c r="Z149" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA149" s="2" t="s">
@@ -23996,10 +23996,10 @@
       <c r="AB149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC149" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD149" s="3" t="s">
+      <c r="AC149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD149" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AE149" s="2" t="s">
@@ -24011,7 +24011,7 @@
         <v>251</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
@@ -24019,7 +24019,7 @@
       <c r="D150" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
@@ -24028,7 +24028,7 @@
       <c r="G150" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="H150" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I150" s="2" t="s">
@@ -24043,7 +24043,7 @@
       <c r="L150" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -24061,7 +24061,7 @@
       <c r="R150" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S150" s="3" t="s">
+      <c r="S150" s="2" t="s">
         <v>74</v>
       </c>
       <c r="T150" s="2" t="s">
@@ -24117,7 +24117,7 @@
       <c r="E151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G151" s="2" t="s">
@@ -24138,13 +24138,13 @@
       <c r="L151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M151" s="3" t="s">
+      <c r="M151" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O151" s="3" t="s">
+      <c r="O151" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P151" s="2" t="s">
@@ -24153,13 +24153,13 @@
       <c r="Q151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R151" s="3" t="s">
+      <c r="R151" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T151" s="3" t="s">
+      <c r="T151" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U151" s="2" t="s">
@@ -24183,10 +24183,10 @@
       <c r="AA151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB151" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC151" s="2" t="s">
+      <c r="AB151" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC151" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD151" s="2" t="s">
@@ -24201,7 +24201,7 @@
         <v>253</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
@@ -24254,13 +24254,13 @@
       <c r="S152" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T152" s="3" t="s">
+      <c r="T152" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U152" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V152" s="3" t="s">
+      <c r="V152" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W152" s="2" t="s">
@@ -24269,7 +24269,7 @@
       <c r="X152" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y152" s="2" t="s">
+      <c r="Y152" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z152" s="2" t="s">
@@ -42563,7 +42563,7 @@
         <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -42571,7 +42571,7 @@
         <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -42619,7 +42619,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -42635,7 +42635,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -42651,7 +42651,7 @@
         <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -42667,7 +42667,7 @@
         <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -42707,7 +42707,7 @@
         <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -42723,7 +42723,7 @@
         <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -42739,7 +42739,7 @@
         <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -42763,7 +42763,7 @@
         <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -42779,7 +42779,7 @@
         <v>143</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -42811,7 +42811,7 @@
         <v>147</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -42819,7 +42819,7 @@
         <v>148</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -42827,7 +42827,7 @@
         <v>149</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -42835,7 +42835,7 @@
         <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -42843,7 +42843,7 @@
         <v>151</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -42851,7 +42851,7 @@
         <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -42867,7 +42867,7 @@
         <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -42875,7 +42875,7 @@
         <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -42883,7 +42883,7 @@
         <v>156</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -42899,7 +42899,7 @@
         <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -42907,7 +42907,7 @@
         <v>159</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -42915,7 +42915,7 @@
         <v>160</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -42923,7 +42923,7 @@
         <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -42955,7 +42955,7 @@
         <v>165</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -42963,7 +42963,7 @@
         <v>166</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -42979,7 +42979,7 @@
         <v>168</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
@@ -42987,7 +42987,7 @@
         <v>169</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -42995,7 +42995,7 @@
         <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -43019,7 +43019,7 @@
         <v>173</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
@@ -43035,7 +43035,7 @@
         <v>175</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -43043,7 +43043,7 @@
         <v>176</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -43059,7 +43059,7 @@
         <v>178</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -43075,7 +43075,7 @@
         <v>180</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -43083,7 +43083,7 @@
         <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -43091,7 +43091,7 @@
         <v>182</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
@@ -43115,7 +43115,7 @@
         <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -43123,7 +43123,7 @@
         <v>186</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -43139,7 +43139,7 @@
         <v>188</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
@@ -43155,7 +43155,7 @@
         <v>190</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
@@ -43171,7 +43171,7 @@
         <v>192</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -43179,7 +43179,7 @@
         <v>193</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
@@ -43187,7 +43187,7 @@
         <v>194</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
@@ -43203,7 +43203,7 @@
         <v>196</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -43211,7 +43211,7 @@
         <v>197</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
@@ -43227,7 +43227,7 @@
         <v>199</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -43267,7 +43267,7 @@
         <v>204</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
@@ -43299,7 +43299,7 @@
         <v>208</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
@@ -43307,7 +43307,7 @@
         <v>209</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
@@ -43331,7 +43331,7 @@
         <v>212</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
@@ -43347,7 +43347,7 @@
         <v>214</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
@@ -43355,7 +43355,7 @@
         <v>215</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
@@ -43379,7 +43379,7 @@
         <v>218</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
@@ -43387,7 +43387,7 @@
         <v>219</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
@@ -43395,7 +43395,7 @@
         <v>220</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -43403,7 +43403,7 @@
         <v>221</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
@@ -43419,7 +43419,7 @@
         <v>223</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
@@ -43427,7 +43427,7 @@
         <v>224</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
@@ -43443,7 +43443,7 @@
         <v>226</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
@@ -43459,7 +43459,7 @@
         <v>228</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
@@ -43531,7 +43531,7 @@
         <v>237</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137">
@@ -43547,7 +43547,7 @@
         <v>239</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
@@ -43555,7 +43555,7 @@
         <v>240</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
@@ -43563,7 +43563,7 @@
         <v>241</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141">
@@ -43571,7 +43571,7 @@
         <v>242</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
@@ -43619,7 +43619,7 @@
         <v>248</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148">
@@ -43627,7 +43627,7 @@
         <v>249</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
@@ -43643,7 +43643,7 @@
         <v>251</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151">
@@ -43659,7 +43659,7 @@
         <v>253</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
